--- a/kasei_tem_finish.xlsx
+++ b/kasei_tem_finish.xlsx
@@ -9,7 +9,7 @@
     <sheet name="化成_テンプレ" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'化成_テンプレ'!$A$1:$M$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'化成_テンプレ'!$A$1:$Z$50</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -397,6 +397,111 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1809750" cy="2447925"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>21</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1809750" cy="2447925"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>37</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1809750" cy="2447925"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>14</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1809750" cy="2447925"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -715,13 +820,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor theme="7"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:Z50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
@@ -729,11 +834,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col width="1.58203125" customWidth="1" style="25" min="1" max="1"/>
-    <col width="6.25" customWidth="1" style="25" min="3" max="4"/>
-    <col width="4.58203125" customWidth="1" style="25" min="5" max="5"/>
-    <col width="1.33203125" customWidth="1" style="25" min="6" max="6"/>
-    <col width="9" customWidth="1" style="25" min="8" max="8"/>
+    <col width="1" customWidth="1" style="25" min="1" max="1"/>
+    <col width="8.42" customWidth="1" style="25" min="2" max="2"/>
+    <col width="5.67" customWidth="1" style="25" min="3" max="4"/>
+    <col width="5.67" customWidth="1" style="25" min="4" max="4"/>
+    <col width="4" customWidth="1" style="25" min="5" max="5"/>
+    <col width="0.84" customWidth="1" style="25" min="6" max="6"/>
+    <col width="8.42" customWidth="1" style="25" min="7" max="7"/>
+    <col width="8.42" customWidth="1" style="25" min="8" max="8"/>
+    <col width="8.42" customWidth="1" style="25" min="9" max="9"/>
+    <col width="8.42" customWidth="1" style="25" min="10" max="10"/>
+    <col width="8.42" customWidth="1" style="25" min="11" max="11"/>
+    <col width="8.42" customWidth="1" style="25" min="12" max="12"/>
+    <col width="8.42" customWidth="1" style="25" min="13" max="13"/>
+    <col width="1" customWidth="1" style="25" min="14" max="14"/>
+    <col width="8.42" customWidth="1" style="25" min="15" max="15"/>
+    <col width="5.67" customWidth="1" style="25" min="16" max="16"/>
+    <col width="5.67" customWidth="1" style="25" min="17" max="17"/>
+    <col width="4" customWidth="1" style="25" min="18" max="18"/>
+    <col width="0.84" customWidth="1" style="25" min="19" max="19"/>
+    <col width="8.42" customWidth="1" style="25" min="20" max="20"/>
+    <col width="8.42" customWidth="1" style="25" min="21" max="21"/>
+    <col width="8.42" customWidth="1" style="25" min="22" max="22"/>
+    <col width="8.42" customWidth="1" style="25" min="23" max="23"/>
+    <col width="8.42" customWidth="1" style="25" min="24" max="24"/>
+    <col width="8.42" customWidth="1" style="25" min="25" max="25"/>
+    <col width="8.42" customWidth="1" style="25" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.75" customHeight="1" s="25">
@@ -754,6 +880,23 @@
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
       <c r="M1" s="3" t="n"/>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 化 成 肥 料</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="3" t="n"/>
     </row>
     <row r="2" ht="9.4" customHeight="1" s="25">
       <c r="A2" s="4" t="n"/>
@@ -768,6 +911,18 @@
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
       <c r="L2" s="4" t="n"/>
+      <c r="N2" s="4" t="n"/>
+      <c r="O2" s="4" t="n"/>
+      <c r="P2" s="4" t="n"/>
+      <c r="Q2" s="4" t="n"/>
+      <c r="R2" s="4" t="n"/>
+      <c r="S2" s="4" t="n"/>
+      <c r="T2" s="4" t="n"/>
+      <c r="U2" s="4" t="n"/>
+      <c r="V2" s="4" t="n"/>
+      <c r="W2" s="4" t="n"/>
+      <c r="X2" s="4" t="n"/>
+      <c r="Y2" s="4" t="n"/>
     </row>
     <row r="3" ht="9.4" customHeight="1" s="25">
       <c r="A3" s="5" t="n"/>
@@ -783,12 +938,25 @@
       <c r="K3" s="5" t="n"/>
       <c r="L3" s="5" t="n"/>
       <c r="M3" s="6" t="n"/>
+      <c r="N3" s="5" t="n"/>
+      <c r="O3" s="5" t="n"/>
+      <c r="P3" s="5" t="n"/>
+      <c r="Q3" s="5" t="n"/>
+      <c r="R3" s="5" t="n"/>
+      <c r="S3" s="5" t="n"/>
+      <c r="T3" s="5" t="n"/>
+      <c r="U3" s="5" t="n"/>
+      <c r="V3" s="5" t="n"/>
+      <c r="W3" s="5" t="n"/>
+      <c r="X3" s="5" t="n"/>
+      <c r="Y3" s="5" t="n"/>
+      <c r="Z3" s="6" t="n"/>
     </row>
     <row r="4" ht="20.15" customHeight="1" s="25">
       <c r="A4" s="20" t="n"/>
       <c r="B4" s="20" t="inlineStr">
         <is>
-          <t>ｼﾞｼｱﾝ化成V580</t>
+          <t>特栽ｺｼ一発297</t>
         </is>
       </c>
       <c r="C4" s="20" t="n"/>
@@ -826,6 +994,47 @@
           <t>B</t>
         </is>
       </c>
+      <c r="N4" s="20" t="n"/>
+      <c r="O4" s="20" t="inlineStr">
+        <is>
+          <t>ﾛﾝｸﾞｿﾗﾏｷ君</t>
+        </is>
+      </c>
+      <c r="P4" s="20" t="n"/>
+      <c r="Q4" s="20" t="n"/>
+      <c r="R4" s="20" t="n"/>
+      <c r="S4" s="7" t="n"/>
+      <c r="T4" s="21" t="n"/>
+      <c r="U4" s="8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V4" s="8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W4" s="8" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="X4" s="8" t="inlineStr">
+        <is>
+          <t>Mg</t>
+        </is>
+      </c>
+      <c r="Y4" s="8" t="inlineStr">
+        <is>
+          <t>Mn</t>
+        </is>
+      </c>
+      <c r="Z4" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="34.5" customHeight="1" s="25">
       <c r="G5" s="22" t="inlineStr">
@@ -834,19 +1043,38 @@
         </is>
       </c>
       <c r="H5" s="18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I5" s="18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J5" s="18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K5" s="26" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="26" t="n"/>
       <c r="M5" s="26" t="n"/>
+      <c r="T5" s="22" t="inlineStr">
+        <is>
+          <t>成分</t>
+        </is>
+      </c>
+      <c r="U5" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="V5" s="18" t="n">
+        <v>12</v>
+      </c>
+      <c r="W5" s="18" t="n">
+        <v>9</v>
+      </c>
+      <c r="X5" s="26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y5" s="26" t="n"/>
+      <c r="Z5" s="26" t="n"/>
     </row>
     <row r="6" ht="20.15" customHeight="1" s="25">
       <c r="G6" s="23" t="inlineStr">
@@ -864,23 +1092,47 @@
       <c r="K6" s="9" t="n"/>
       <c r="L6" s="9" t="n"/>
       <c r="M6" s="11" t="n"/>
+      <c r="T6" s="23" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="U6" s="9" t="inlineStr">
+        <is>
+          <t>容量：10㎏</t>
+        </is>
+      </c>
+      <c r="V6" s="10" t="n"/>
+      <c r="W6" s="9" t="n"/>
+      <c r="X6" s="9" t="n"/>
+      <c r="Y6" s="9" t="n"/>
+      <c r="Z6" s="11" t="n"/>
     </row>
     <row r="7">
       <c r="G7" s="24" t="n"/>
-      <c r="H7" s="12" t="inlineStr">
-        <is>
-          <t>AN：13.5</t>
-        </is>
+      <c r="H7" s="12" t="n">
+        <v/>
       </c>
       <c r="I7" s="12" t="n"/>
       <c r="J7" s="12" t="n"/>
       <c r="K7" s="12" t="n"/>
       <c r="L7" s="12" t="n"/>
       <c r="M7" s="13" t="n"/>
+      <c r="T7" s="24" t="n"/>
+      <c r="U7" s="12" t="n">
+        <v/>
+      </c>
+      <c r="V7" s="12" t="n"/>
+      <c r="W7" s="12" t="n"/>
+      <c r="X7" s="12" t="n"/>
+      <c r="Y7" s="12" t="n"/>
+      <c r="Z7" s="13" t="n"/>
     </row>
     <row r="8">
       <c r="G8" s="14" t="n"/>
       <c r="H8" s="10" t="n"/>
+      <c r="T8" s="14" t="n"/>
+      <c r="U8" s="10" t="n"/>
     </row>
     <row r="9" ht="20.15" customHeight="1" s="25">
       <c r="G9" s="15" t="inlineStr">
@@ -894,58 +1146,89 @@
       <c r="K9" s="15" t="n"/>
       <c r="L9" s="15" t="n"/>
       <c r="M9" s="15" t="n"/>
+      <c r="T9" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　特 徴</t>
+        </is>
+      </c>
+      <c r="U9" s="15" t="n"/>
+      <c r="V9" s="15" t="n"/>
+      <c r="W9" s="15" t="n"/>
+      <c r="X9" s="15" t="n"/>
+      <c r="Y9" s="15" t="n"/>
+      <c r="Z9" s="15" t="n"/>
     </row>
     <row r="10" ht="20.15" customHeight="1" s="25">
       <c r="G10" t="inlineStr">
         <is>
-          <t>●硝酸化抑制剤＝ｼﾞｼｱﾝｼﾞｱﾐﾄﾞ(Dd)を含有しております</t>
+          <t>●全窒素の半分を有機態窒素で確保した特別栽培好適の肥料です。</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>●ドローン専用の高窒素タイプです。</t>
         </is>
       </c>
     </row>
     <row r="11" ht="20.15" customHeight="1" s="25">
       <c r="G11" t="inlineStr">
         <is>
-          <t>●ｼﾞｼｱﾝｼﾞｱﾐﾄﾞによって、砂地など流亡しやすい圃場でも窒素成分を効率的に</t>
+          <t>●生育期間を通じて安定した肥効が期待出来ます。</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>●小粒サイズで散布ムラが起こりにくいです。</t>
         </is>
       </c>
     </row>
     <row r="12" ht="20.15" customHeight="1" s="25">
-      <c r="G12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">　効かせることが可能です</t>
+      <c r="G12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>●有機態チッソと緩効性チッソを含む、長期間に安定した肥効です。</t>
         </is>
       </c>
     </row>
     <row r="13" ht="20.15" customHeight="1" s="25">
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>●緩効性肥料のため、追肥回数の省力化が期待できます</t>
-        </is>
+      <c r="G13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14" ht="20.15" customHeight="1" s="25">
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>●苦土によって光合成促進や樹勢回復、リン酸吸収促進が期待できます</t>
-        </is>
+      <c r="G14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15" ht="20.15" customHeight="1" s="25">
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>●ホウ素を含有している為、特にホウ素が欠乏しやすい</t>
-        </is>
+      <c r="G15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16" ht="20.15" customHeight="1" s="25">
-      <c r="G16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">　アブラナ科作物に対して効果的です</t>
-        </is>
+      <c r="G16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17" ht="20.15" customHeight="1" s="25">
       <c r="G17" t="n">
+        <v/>
+      </c>
+      <c r="T17" t="n">
         <v/>
       </c>
     </row>
@@ -962,6 +1245,18 @@
       <c r="J18" s="16" t="n"/>
       <c r="K18" s="16" t="n"/>
       <c r="L18" s="16" t="n"/>
+      <c r="N18" s="16" t="n"/>
+      <c r="O18" s="16" t="n"/>
+      <c r="P18" s="16" t="n"/>
+      <c r="Q18" s="16" t="n"/>
+      <c r="R18" s="16" t="n"/>
+      <c r="S18" s="16" t="n"/>
+      <c r="T18" s="17" t="n"/>
+      <c r="U18" s="16" t="n"/>
+      <c r="V18" s="16" t="n"/>
+      <c r="W18" s="16" t="n"/>
+      <c r="X18" s="16" t="n"/>
+      <c r="Y18" s="16" t="n"/>
     </row>
     <row r="19" ht="9.4" customHeight="1" s="25">
       <c r="A19" s="5" t="n"/>
@@ -977,471 +1272,778 @@
       <c r="K19" s="5" t="n"/>
       <c r="L19" s="5" t="n"/>
       <c r="M19" s="6" t="n"/>
+      <c r="N19" s="5" t="n"/>
+      <c r="O19" s="5" t="n"/>
+      <c r="P19" s="5" t="n"/>
+      <c r="Q19" s="5" t="n"/>
+      <c r="R19" s="5" t="n"/>
+      <c r="S19" s="5" t="n"/>
+      <c r="T19" s="5" t="n"/>
+      <c r="U19" s="5" t="n"/>
+      <c r="V19" s="5" t="n"/>
+      <c r="W19" s="5" t="n"/>
+      <c r="X19" s="5" t="n"/>
+      <c r="Y19" s="5" t="n"/>
+      <c r="Z19" s="6" t="n"/>
     </row>
     <row r="20" ht="20.15" customHeight="1" s="25">
-      <c r="A20" s="27" t="n"/>
-      <c r="B20" s="27" t="n"/>
-      <c r="C20" s="27" t="n"/>
-      <c r="D20" s="27" t="n"/>
-      <c r="E20" s="27" t="n"/>
-      <c r="F20" s="28" t="n"/>
-      <c r="G20" s="27" t="n"/>
-      <c r="H20" s="28" t="n"/>
-      <c r="I20" s="28" t="n"/>
-      <c r="J20" s="28" t="n"/>
-      <c r="K20" s="28" t="n"/>
-      <c r="L20" s="28" t="n"/>
-      <c r="M20" s="28" t="n"/>
+      <c r="A20" s="20" t="n"/>
+      <c r="B20" s="20" t="inlineStr">
+        <is>
+          <t>ｼﾞｼｱﾝﾌﾟﾗｽ562</t>
+        </is>
+      </c>
+      <c r="C20" s="20" t="n"/>
+      <c r="D20" s="20" t="n"/>
+      <c r="E20" s="20" t="n"/>
+      <c r="F20" s="7" t="n"/>
+      <c r="G20" s="21" t="n"/>
+      <c r="H20" s="8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I20" s="8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>Mg</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="inlineStr">
+        <is>
+          <t>Mn</t>
+        </is>
+      </c>
+      <c r="M20" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="N20" s="27" t="n"/>
+      <c r="O20" s="27" t="n"/>
+      <c r="P20" s="27" t="n"/>
+      <c r="Q20" s="27" t="n"/>
+      <c r="R20" s="27" t="n"/>
+      <c r="S20" s="28" t="n"/>
+      <c r="T20" s="27" t="n"/>
+      <c r="U20" s="28" t="n"/>
+      <c r="V20" s="28" t="n"/>
+      <c r="W20" s="28" t="n"/>
+      <c r="X20" s="28" t="n"/>
+      <c r="Y20" s="28" t="n"/>
+      <c r="Z20" s="28" t="n"/>
     </row>
     <row r="21" ht="34.5" customHeight="1" s="25">
-      <c r="A21" s="29" t="n"/>
-      <c r="B21" s="29" t="n"/>
-      <c r="C21" s="29" t="n"/>
-      <c r="D21" s="29" t="n"/>
-      <c r="E21" s="29" t="n"/>
-      <c r="F21" s="29" t="n"/>
-      <c r="G21" s="30" t="n"/>
-      <c r="H21" s="31" t="n"/>
-      <c r="I21" s="31" t="n"/>
-      <c r="J21" s="31" t="n"/>
-      <c r="K21" s="32" t="n"/>
-      <c r="L21" s="32" t="n"/>
-      <c r="M21" s="32" t="n"/>
+      <c r="G21" s="22" t="inlineStr">
+        <is>
+          <t>成分</t>
+        </is>
+      </c>
+      <c r="H21" s="18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I21" s="18" t="n">
+        <v>16</v>
+      </c>
+      <c r="J21" s="18" t="n">
+        <v>12</v>
+      </c>
+      <c r="K21" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="26" t="n"/>
+      <c r="M21" s="26" t="n"/>
+      <c r="N21" s="29" t="n"/>
+      <c r="O21" s="29" t="n"/>
+      <c r="P21" s="29" t="n"/>
+      <c r="Q21" s="29" t="n"/>
+      <c r="R21" s="29" t="n"/>
+      <c r="S21" s="29" t="n"/>
+      <c r="T21" s="30" t="n"/>
+      <c r="U21" s="31" t="n"/>
+      <c r="V21" s="31" t="n"/>
+      <c r="W21" s="31" t="n"/>
+      <c r="X21" s="32" t="n"/>
+      <c r="Y21" s="32" t="n"/>
+      <c r="Z21" s="32" t="n"/>
     </row>
     <row r="22" ht="20.15" customHeight="1" s="25">
-      <c r="A22" s="29" t="n"/>
-      <c r="B22" s="29" t="n"/>
-      <c r="C22" s="29" t="n"/>
-      <c r="D22" s="29" t="n"/>
-      <c r="E22" s="29" t="n"/>
-      <c r="F22" s="29" t="n"/>
-      <c r="G22" s="33" t="n"/>
-      <c r="H22" s="27" t="n"/>
-      <c r="I22" s="28" t="n"/>
-      <c r="J22" s="27" t="n"/>
-      <c r="K22" s="27" t="n"/>
-      <c r="L22" s="27" t="n"/>
-      <c r="M22" s="27" t="n"/>
+      <c r="G22" s="23" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="H22" s="9" t="inlineStr">
+        <is>
+          <t>容量：20㎏</t>
+        </is>
+      </c>
+      <c r="I22" s="10" t="n"/>
+      <c r="J22" s="9" t="n"/>
+      <c r="K22" s="9" t="n"/>
+      <c r="L22" s="9" t="n"/>
+      <c r="M22" s="11" t="n"/>
+      <c r="N22" s="29" t="n"/>
+      <c r="O22" s="29" t="n"/>
+      <c r="P22" s="29" t="n"/>
+      <c r="Q22" s="29" t="n"/>
+      <c r="R22" s="29" t="n"/>
+      <c r="S22" s="29" t="n"/>
+      <c r="T22" s="33" t="n"/>
+      <c r="U22" s="27" t="n"/>
+      <c r="V22" s="28" t="n"/>
+      <c r="W22" s="27" t="n"/>
+      <c r="X22" s="27" t="n"/>
+      <c r="Y22" s="27" t="n"/>
+      <c r="Z22" s="27" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="29" t="n"/>
-      <c r="B23" s="29" t="n"/>
-      <c r="C23" s="29" t="n"/>
-      <c r="D23" s="29" t="n"/>
-      <c r="E23" s="29" t="n"/>
-      <c r="F23" s="29" t="n"/>
-      <c r="G23" s="29" t="n"/>
-      <c r="H23" s="27" t="n"/>
-      <c r="I23" s="27" t="n"/>
-      <c r="J23" s="27" t="n"/>
-      <c r="K23" s="27" t="n"/>
-      <c r="L23" s="27" t="n"/>
-      <c r="M23" s="27" t="n"/>
+      <c r="G23" s="24" t="n"/>
+      <c r="H23" s="12" t="n">
+        <v/>
+      </c>
+      <c r="I23" s="12" t="n"/>
+      <c r="J23" s="12" t="n"/>
+      <c r="K23" s="12" t="n"/>
+      <c r="L23" s="12" t="n"/>
+      <c r="M23" s="13" t="n"/>
+      <c r="N23" s="29" t="n"/>
+      <c r="O23" s="29" t="n"/>
+      <c r="P23" s="29" t="n"/>
+      <c r="Q23" s="29" t="n"/>
+      <c r="R23" s="29" t="n"/>
+      <c r="S23" s="29" t="n"/>
+      <c r="T23" s="29" t="n"/>
+      <c r="U23" s="27" t="n"/>
+      <c r="V23" s="27" t="n"/>
+      <c r="W23" s="27" t="n"/>
+      <c r="X23" s="27" t="n"/>
+      <c r="Y23" s="27" t="n"/>
+      <c r="Z23" s="27" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="29" t="n"/>
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="29" t="n"/>
-      <c r="E24" s="29" t="n"/>
-      <c r="F24" s="29" t="n"/>
-      <c r="G24" s="28" t="n"/>
-      <c r="H24" s="28" t="n"/>
-      <c r="I24" s="29" t="n"/>
-      <c r="J24" s="29" t="n"/>
-      <c r="K24" s="29" t="n"/>
-      <c r="L24" s="29" t="n"/>
-      <c r="M24" s="29" t="n"/>
+      <c r="G24" s="14" t="n"/>
+      <c r="H24" s="10" t="n"/>
+      <c r="N24" s="29" t="n"/>
+      <c r="O24" s="29" t="n"/>
+      <c r="P24" s="29" t="n"/>
+      <c r="Q24" s="29" t="n"/>
+      <c r="R24" s="29" t="n"/>
+      <c r="S24" s="29" t="n"/>
+      <c r="T24" s="28" t="n"/>
+      <c r="U24" s="28" t="n"/>
+      <c r="V24" s="29" t="n"/>
+      <c r="W24" s="29" t="n"/>
+      <c r="X24" s="29" t="n"/>
+      <c r="Y24" s="29" t="n"/>
+      <c r="Z24" s="29" t="n"/>
     </row>
     <row r="25" ht="20.15" customHeight="1" s="25">
-      <c r="A25" s="29" t="n"/>
-      <c r="B25" s="29" t="n"/>
-      <c r="C25" s="29" t="n"/>
-      <c r="D25" s="29" t="n"/>
-      <c r="E25" s="29" t="n"/>
-      <c r="F25" s="29" t="n"/>
-      <c r="G25" s="34" t="n"/>
-      <c r="H25" s="34" t="n"/>
-      <c r="I25" s="34" t="n"/>
-      <c r="J25" s="34" t="n"/>
-      <c r="K25" s="34" t="n"/>
-      <c r="L25" s="34" t="n"/>
-      <c r="M25" s="34" t="n"/>
+      <c r="G25" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　特 徴</t>
+        </is>
+      </c>
+      <c r="H25" s="15" t="n"/>
+      <c r="I25" s="15" t="n"/>
+      <c r="J25" s="15" t="n"/>
+      <c r="K25" s="15" t="n"/>
+      <c r="L25" s="15" t="n"/>
+      <c r="M25" s="15" t="n"/>
+      <c r="N25" s="29" t="n"/>
+      <c r="O25" s="29" t="n"/>
+      <c r="P25" s="29" t="n"/>
+      <c r="Q25" s="29" t="n"/>
+      <c r="R25" s="29" t="n"/>
+      <c r="S25" s="29" t="n"/>
+      <c r="T25" s="34" t="n"/>
+      <c r="U25" s="34" t="n"/>
+      <c r="V25" s="34" t="n"/>
+      <c r="W25" s="34" t="n"/>
+      <c r="X25" s="34" t="n"/>
+      <c r="Y25" s="34" t="n"/>
+      <c r="Z25" s="34" t="n"/>
     </row>
     <row r="26" ht="20.15" customHeight="1" s="25">
-      <c r="A26" s="29" t="n"/>
-      <c r="B26" s="29" t="n"/>
-      <c r="C26" s="29" t="n"/>
-      <c r="D26" s="29" t="n"/>
-      <c r="E26" s="29" t="n"/>
-      <c r="F26" s="29" t="n"/>
-      <c r="G26" s="29" t="n"/>
-      <c r="H26" s="29" t="n"/>
-      <c r="I26" s="29" t="n"/>
-      <c r="J26" s="29" t="n"/>
-      <c r="K26" s="29" t="n"/>
-      <c r="L26" s="29" t="n"/>
-      <c r="M26" s="29" t="n"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>●硝酸化成抑制材（ジシアンジアミド）と緩効性窒素肥料を含んだ園芸</t>
+        </is>
+      </c>
+      <c r="N26" s="29" t="n"/>
+      <c r="O26" s="29" t="n"/>
+      <c r="P26" s="29" t="n"/>
+      <c r="Q26" s="29" t="n"/>
+      <c r="R26" s="29" t="n"/>
+      <c r="S26" s="29" t="n"/>
+      <c r="T26" s="29" t="n"/>
+      <c r="U26" s="29" t="n"/>
+      <c r="V26" s="29" t="n"/>
+      <c r="W26" s="29" t="n"/>
+      <c r="X26" s="29" t="n"/>
+      <c r="Y26" s="29" t="n"/>
+      <c r="Z26" s="29" t="n"/>
     </row>
     <row r="27" ht="20.15" customHeight="1" s="25">
-      <c r="A27" s="29" t="n"/>
-      <c r="B27" s="29" t="n"/>
-      <c r="C27" s="29" t="n"/>
-      <c r="D27" s="29" t="n"/>
-      <c r="E27" s="29" t="n"/>
-      <c r="F27" s="29" t="n"/>
-      <c r="G27" s="29" t="n"/>
-      <c r="H27" s="29" t="n"/>
-      <c r="I27" s="29" t="n"/>
-      <c r="J27" s="29" t="n"/>
-      <c r="K27" s="29" t="n"/>
-      <c r="L27" s="29" t="n"/>
-      <c r="M27" s="29" t="n"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　向けの高機能な肥効安定型の化成肥料です。</t>
+        </is>
+      </c>
+      <c r="N27" s="29" t="n"/>
+      <c r="O27" s="29" t="n"/>
+      <c r="P27" s="29" t="n"/>
+      <c r="Q27" s="29" t="n"/>
+      <c r="R27" s="29" t="n"/>
+      <c r="S27" s="29" t="n"/>
+      <c r="T27" s="29" t="n"/>
+      <c r="U27" s="29" t="n"/>
+      <c r="V27" s="29" t="n"/>
+      <c r="W27" s="29" t="n"/>
+      <c r="X27" s="29" t="n"/>
+      <c r="Y27" s="29" t="n"/>
+      <c r="Z27" s="29" t="n"/>
     </row>
     <row r="28" ht="20.15" customHeight="1" s="25">
-      <c r="A28" s="29" t="n"/>
-      <c r="B28" s="29" t="n"/>
-      <c r="C28" s="29" t="n"/>
-      <c r="D28" s="29" t="n"/>
-      <c r="E28" s="29" t="n"/>
-      <c r="F28" s="29" t="n"/>
-      <c r="G28" s="29" t="n"/>
-      <c r="H28" s="29" t="n"/>
-      <c r="I28" s="29" t="n"/>
-      <c r="J28" s="29" t="n"/>
-      <c r="K28" s="29" t="n"/>
-      <c r="L28" s="29" t="n"/>
-      <c r="M28" s="29" t="n"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>●硝酸化成抑制材が降雨や流水による窒素成分の流亡を抑え、肥料成分</t>
+        </is>
+      </c>
+      <c r="N28" s="29" t="n"/>
+      <c r="O28" s="29" t="n"/>
+      <c r="P28" s="29" t="n"/>
+      <c r="Q28" s="29" t="n"/>
+      <c r="R28" s="29" t="n"/>
+      <c r="S28" s="29" t="n"/>
+      <c r="T28" s="29" t="n"/>
+      <c r="U28" s="29" t="n"/>
+      <c r="V28" s="29" t="n"/>
+      <c r="W28" s="29" t="n"/>
+      <c r="X28" s="29" t="n"/>
+      <c r="Y28" s="29" t="n"/>
+      <c r="Z28" s="29" t="n"/>
     </row>
     <row r="29" ht="20.15" customHeight="1" s="25">
-      <c r="A29" s="29" t="n"/>
-      <c r="B29" s="29" t="n"/>
-      <c r="C29" s="29" t="n"/>
-      <c r="D29" s="29" t="n"/>
-      <c r="E29" s="29" t="n"/>
-      <c r="F29" s="29" t="n"/>
-      <c r="G29" s="29" t="n"/>
-      <c r="H29" s="29" t="n"/>
-      <c r="I29" s="29" t="n"/>
-      <c r="J29" s="29" t="n"/>
-      <c r="K29" s="29" t="n"/>
-      <c r="L29" s="29" t="n"/>
-      <c r="M29" s="29" t="n"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　を無駄にしません。</t>
+        </is>
+      </c>
+      <c r="N29" s="29" t="n"/>
+      <c r="O29" s="29" t="n"/>
+      <c r="P29" s="29" t="n"/>
+      <c r="Q29" s="29" t="n"/>
+      <c r="R29" s="29" t="n"/>
+      <c r="S29" s="29" t="n"/>
+      <c r="T29" s="29" t="n"/>
+      <c r="U29" s="29" t="n"/>
+      <c r="V29" s="29" t="n"/>
+      <c r="W29" s="29" t="n"/>
+      <c r="X29" s="29" t="n"/>
+      <c r="Y29" s="29" t="n"/>
+      <c r="Z29" s="29" t="n"/>
     </row>
     <row r="30" ht="20.15" customHeight="1" s="25">
-      <c r="A30" s="29" t="n"/>
-      <c r="B30" s="29" t="n"/>
-      <c r="C30" s="29" t="n"/>
-      <c r="D30" s="29" t="n"/>
-      <c r="E30" s="29" t="n"/>
-      <c r="F30" s="29" t="n"/>
-      <c r="G30" s="29" t="n"/>
-      <c r="H30" s="29" t="n"/>
-      <c r="I30" s="29" t="n"/>
-      <c r="J30" s="29" t="n"/>
-      <c r="K30" s="29" t="n"/>
-      <c r="L30" s="29" t="n"/>
-      <c r="M30" s="29" t="n"/>
+      <c r="G30" t="n">
+        <v/>
+      </c>
+      <c r="N30" s="29" t="n"/>
+      <c r="O30" s="29" t="n"/>
+      <c r="P30" s="29" t="n"/>
+      <c r="Q30" s="29" t="n"/>
+      <c r="R30" s="29" t="n"/>
+      <c r="S30" s="29" t="n"/>
+      <c r="T30" s="29" t="n"/>
+      <c r="U30" s="29" t="n"/>
+      <c r="V30" s="29" t="n"/>
+      <c r="W30" s="29" t="n"/>
+      <c r="X30" s="29" t="n"/>
+      <c r="Y30" s="29" t="n"/>
+      <c r="Z30" s="29" t="n"/>
     </row>
     <row r="31" ht="20.15" customHeight="1" s="25">
-      <c r="A31" s="29" t="n"/>
-      <c r="B31" s="29" t="n"/>
-      <c r="C31" s="29" t="n"/>
-      <c r="D31" s="29" t="n"/>
-      <c r="E31" s="29" t="n"/>
-      <c r="F31" s="29" t="n"/>
-      <c r="G31" s="29" t="n"/>
-      <c r="H31" s="29" t="n"/>
-      <c r="I31" s="29" t="n"/>
-      <c r="J31" s="29" t="n"/>
-      <c r="K31" s="29" t="n"/>
-      <c r="L31" s="29" t="n"/>
-      <c r="M31" s="29" t="n"/>
+      <c r="G31" t="n">
+        <v/>
+      </c>
+      <c r="N31" s="29" t="n"/>
+      <c r="O31" s="29" t="n"/>
+      <c r="P31" s="29" t="n"/>
+      <c r="Q31" s="29" t="n"/>
+      <c r="R31" s="29" t="n"/>
+      <c r="S31" s="29" t="n"/>
+      <c r="T31" s="29" t="n"/>
+      <c r="U31" s="29" t="n"/>
+      <c r="V31" s="29" t="n"/>
+      <c r="W31" s="29" t="n"/>
+      <c r="X31" s="29" t="n"/>
+      <c r="Y31" s="29" t="n"/>
+      <c r="Z31" s="29" t="n"/>
     </row>
     <row r="32" ht="20.15" customHeight="1" s="25">
-      <c r="A32" s="29" t="n"/>
-      <c r="B32" s="29" t="n"/>
-      <c r="C32" s="29" t="n"/>
-      <c r="D32" s="29" t="n"/>
-      <c r="E32" s="29" t="n"/>
-      <c r="F32" s="29" t="n"/>
-      <c r="G32" s="29" t="n"/>
-      <c r="H32" s="29" t="n"/>
-      <c r="I32" s="29" t="n"/>
-      <c r="J32" s="29" t="n"/>
-      <c r="K32" s="29" t="n"/>
-      <c r="L32" s="29" t="n"/>
-      <c r="M32" s="29" t="n"/>
+      <c r="G32" t="n">
+        <v/>
+      </c>
+      <c r="N32" s="29" t="n"/>
+      <c r="O32" s="29" t="n"/>
+      <c r="P32" s="29" t="n"/>
+      <c r="Q32" s="29" t="n"/>
+      <c r="R32" s="29" t="n"/>
+      <c r="S32" s="29" t="n"/>
+      <c r="T32" s="29" t="n"/>
+      <c r="U32" s="29" t="n"/>
+      <c r="V32" s="29" t="n"/>
+      <c r="W32" s="29" t="n"/>
+      <c r="X32" s="29" t="n"/>
+      <c r="Y32" s="29" t="n"/>
+      <c r="Z32" s="29" t="n"/>
     </row>
     <row r="33" ht="20.15" customHeight="1" s="25">
-      <c r="A33" s="29" t="n"/>
-      <c r="B33" s="29" t="n"/>
-      <c r="C33" s="29" t="n"/>
-      <c r="D33" s="29" t="n"/>
-      <c r="E33" s="29" t="n"/>
-      <c r="F33" s="29" t="n"/>
-      <c r="G33" s="29" t="n"/>
-      <c r="H33" s="29" t="n"/>
-      <c r="I33" s="29" t="n"/>
-      <c r="J33" s="29" t="n"/>
-      <c r="K33" s="29" t="n"/>
-      <c r="L33" s="29" t="n"/>
-      <c r="M33" s="29" t="n"/>
+      <c r="G33" t="n">
+        <v/>
+      </c>
+      <c r="N33" s="29" t="n"/>
+      <c r="O33" s="29" t="n"/>
+      <c r="P33" s="29" t="n"/>
+      <c r="Q33" s="29" t="n"/>
+      <c r="R33" s="29" t="n"/>
+      <c r="S33" s="29" t="n"/>
+      <c r="T33" s="29" t="n"/>
+      <c r="U33" s="29" t="n"/>
+      <c r="V33" s="29" t="n"/>
+      <c r="W33" s="29" t="n"/>
+      <c r="X33" s="29" t="n"/>
+      <c r="Y33" s="29" t="n"/>
+      <c r="Z33" s="29" t="n"/>
     </row>
     <row r="34" ht="9" customHeight="1" s="25">
-      <c r="A34" s="27" t="n"/>
-      <c r="B34" s="27" t="n"/>
-      <c r="C34" s="27" t="n"/>
-      <c r="D34" s="27" t="n"/>
-      <c r="E34" s="27" t="n"/>
-      <c r="F34" s="27" t="n"/>
-      <c r="G34" s="28" t="n"/>
-      <c r="H34" s="27" t="n"/>
-      <c r="I34" s="27" t="n"/>
-      <c r="J34" s="27" t="n"/>
-      <c r="K34" s="27" t="n"/>
-      <c r="L34" s="27" t="n"/>
-      <c r="M34" s="29" t="n"/>
+      <c r="A34" s="16" t="n"/>
+      <c r="B34" s="16" t="n"/>
+      <c r="C34" s="16" t="n"/>
+      <c r="D34" s="16" t="n"/>
+      <c r="E34" s="16" t="n"/>
+      <c r="F34" s="16" t="n"/>
+      <c r="G34" s="17" t="n"/>
+      <c r="H34" s="16" t="n"/>
+      <c r="I34" s="16" t="n"/>
+      <c r="J34" s="16" t="n"/>
+      <c r="K34" s="16" t="n"/>
+      <c r="L34" s="16" t="n"/>
+      <c r="N34" s="27" t="n"/>
+      <c r="O34" s="27" t="n"/>
+      <c r="P34" s="27" t="n"/>
+      <c r="Q34" s="27" t="n"/>
+      <c r="R34" s="27" t="n"/>
+      <c r="S34" s="27" t="n"/>
+      <c r="T34" s="28" t="n"/>
+      <c r="U34" s="27" t="n"/>
+      <c r="V34" s="27" t="n"/>
+      <c r="W34" s="27" t="n"/>
+      <c r="X34" s="27" t="n"/>
+      <c r="Y34" s="27" t="n"/>
+      <c r="Z34" s="29" t="n"/>
     </row>
     <row r="35" ht="9.4" customHeight="1" s="25">
-      <c r="A35" s="34" t="n"/>
-      <c r="B35" s="34" t="n"/>
-      <c r="C35" s="34" t="n"/>
-      <c r="D35" s="34" t="n"/>
-      <c r="E35" s="34" t="n"/>
-      <c r="F35" s="34" t="n"/>
-      <c r="G35" s="34" t="n"/>
-      <c r="H35" s="34" t="n"/>
-      <c r="I35" s="34" t="n"/>
-      <c r="J35" s="34" t="n"/>
-      <c r="K35" s="34" t="n"/>
-      <c r="L35" s="34" t="n"/>
-      <c r="M35" s="27" t="n"/>
+      <c r="A35" s="5" t="n"/>
+      <c r="B35" s="5" t="n"/>
+      <c r="C35" s="5" t="n"/>
+      <c r="D35" s="5" t="n"/>
+      <c r="E35" s="5" t="n"/>
+      <c r="F35" s="5" t="n"/>
+      <c r="G35" s="5" t="n"/>
+      <c r="H35" s="5" t="n"/>
+      <c r="I35" s="5" t="n"/>
+      <c r="J35" s="5" t="n"/>
+      <c r="K35" s="5" t="n"/>
+      <c r="L35" s="5" t="n"/>
+      <c r="M35" s="6" t="n"/>
+      <c r="N35" s="34" t="n"/>
+      <c r="O35" s="34" t="n"/>
+      <c r="P35" s="34" t="n"/>
+      <c r="Q35" s="34" t="n"/>
+      <c r="R35" s="34" t="n"/>
+      <c r="S35" s="34" t="n"/>
+      <c r="T35" s="34" t="n"/>
+      <c r="U35" s="34" t="n"/>
+      <c r="V35" s="34" t="n"/>
+      <c r="W35" s="34" t="n"/>
+      <c r="X35" s="34" t="n"/>
+      <c r="Y35" s="34" t="n"/>
+      <c r="Z35" s="27" t="n"/>
     </row>
     <row r="36" ht="20.15" customHeight="1" s="25">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="27" t="n"/>
-      <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
-      <c r="E36" s="27" t="n"/>
-      <c r="F36" s="28" t="n"/>
-      <c r="G36" s="27" t="n"/>
-      <c r="H36" s="28" t="n"/>
-      <c r="I36" s="28" t="n"/>
-      <c r="J36" s="28" t="n"/>
-      <c r="K36" s="28" t="n"/>
-      <c r="L36" s="28" t="n"/>
-      <c r="M36" s="28" t="n"/>
+      <c r="A36" s="20" t="n"/>
+      <c r="B36" s="20" t="inlineStr">
+        <is>
+          <t>ｼﾞｼｱﾝﾀｰﾎﾞS789</t>
+        </is>
+      </c>
+      <c r="C36" s="20" t="n"/>
+      <c r="D36" s="20" t="n"/>
+      <c r="E36" s="20" t="n"/>
+      <c r="F36" s="7" t="n"/>
+      <c r="G36" s="21" t="n"/>
+      <c r="H36" s="8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J36" s="8" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="K36" s="8" t="inlineStr">
+        <is>
+          <t>Mg</t>
+        </is>
+      </c>
+      <c r="L36" s="8" t="inlineStr">
+        <is>
+          <t>Mn</t>
+        </is>
+      </c>
+      <c r="M36" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="N36" s="27" t="n"/>
+      <c r="O36" s="27" t="n"/>
+      <c r="P36" s="27" t="n"/>
+      <c r="Q36" s="27" t="n"/>
+      <c r="R36" s="27" t="n"/>
+      <c r="S36" s="28" t="n"/>
+      <c r="T36" s="27" t="n"/>
+      <c r="U36" s="28" t="n"/>
+      <c r="V36" s="28" t="n"/>
+      <c r="W36" s="28" t="n"/>
+      <c r="X36" s="28" t="n"/>
+      <c r="Y36" s="28" t="n"/>
+      <c r="Z36" s="28" t="n"/>
     </row>
     <row r="37" ht="34.5" customHeight="1" s="25">
-      <c r="A37" s="29" t="n"/>
-      <c r="B37" s="29" t="n"/>
-      <c r="C37" s="29" t="n"/>
-      <c r="D37" s="29" t="n"/>
-      <c r="E37" s="29" t="n"/>
-      <c r="F37" s="29" t="n"/>
-      <c r="G37" s="30" t="n"/>
-      <c r="H37" s="31" t="n"/>
-      <c r="I37" s="31" t="n"/>
-      <c r="J37" s="31" t="n"/>
-      <c r="K37" s="32" t="n"/>
-      <c r="L37" s="32" t="n"/>
-      <c r="M37" s="32" t="n"/>
+      <c r="G37" s="22" t="inlineStr">
+        <is>
+          <t>成分</t>
+        </is>
+      </c>
+      <c r="H37" s="18" t="n">
+        <v>17</v>
+      </c>
+      <c r="I37" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="J37" s="18" t="n">
+        <v>9</v>
+      </c>
+      <c r="K37" s="26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L37" s="26" t="n"/>
+      <c r="M37" s="26" t="n"/>
+      <c r="N37" s="29" t="n"/>
+      <c r="O37" s="29" t="n"/>
+      <c r="P37" s="29" t="n"/>
+      <c r="Q37" s="29" t="n"/>
+      <c r="R37" s="29" t="n"/>
+      <c r="S37" s="29" t="n"/>
+      <c r="T37" s="30" t="n"/>
+      <c r="U37" s="31" t="n"/>
+      <c r="V37" s="31" t="n"/>
+      <c r="W37" s="31" t="n"/>
+      <c r="X37" s="32" t="n"/>
+      <c r="Y37" s="32" t="n"/>
+      <c r="Z37" s="32" t="n"/>
     </row>
     <row r="38" ht="20.15" customHeight="1" s="25">
-      <c r="A38" s="29" t="n"/>
-      <c r="B38" s="29" t="n"/>
-      <c r="C38" s="29" t="n"/>
-      <c r="D38" s="29" t="n"/>
-      <c r="E38" s="29" t="n"/>
-      <c r="F38" s="29" t="n"/>
-      <c r="G38" s="33" t="n"/>
-      <c r="H38" s="27" t="n"/>
-      <c r="I38" s="28" t="n"/>
-      <c r="J38" s="27" t="n"/>
-      <c r="K38" s="27" t="n"/>
-      <c r="L38" s="27" t="n"/>
-      <c r="M38" s="27" t="n"/>
+      <c r="G38" s="23" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>容量：20㎏</t>
+        </is>
+      </c>
+      <c r="I38" s="10" t="n"/>
+      <c r="J38" s="9" t="n"/>
+      <c r="K38" s="9" t="n"/>
+      <c r="L38" s="9" t="n"/>
+      <c r="M38" s="11" t="n"/>
+      <c r="N38" s="29" t="n"/>
+      <c r="O38" s="29" t="n"/>
+      <c r="P38" s="29" t="n"/>
+      <c r="Q38" s="29" t="n"/>
+      <c r="R38" s="29" t="n"/>
+      <c r="S38" s="29" t="n"/>
+      <c r="T38" s="33" t="n"/>
+      <c r="U38" s="27" t="n"/>
+      <c r="V38" s="28" t="n"/>
+      <c r="W38" s="27" t="n"/>
+      <c r="X38" s="27" t="n"/>
+      <c r="Y38" s="27" t="n"/>
+      <c r="Z38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="29" t="n"/>
-      <c r="B39" s="29" t="n"/>
-      <c r="C39" s="29" t="n"/>
-      <c r="D39" s="29" t="n"/>
-      <c r="E39" s="29" t="n"/>
-      <c r="F39" s="29" t="n"/>
-      <c r="G39" s="29" t="n"/>
-      <c r="H39" s="27" t="n"/>
-      <c r="I39" s="27" t="n"/>
-      <c r="J39" s="27" t="n"/>
-      <c r="K39" s="27" t="n"/>
-      <c r="L39" s="27" t="n"/>
-      <c r="M39" s="27" t="n"/>
+      <c r="G39" s="24" t="n"/>
+      <c r="H39" s="12" t="n">
+        <v/>
+      </c>
+      <c r="I39" s="12" t="n"/>
+      <c r="J39" s="12" t="n"/>
+      <c r="K39" s="12" t="n"/>
+      <c r="L39" s="12" t="n"/>
+      <c r="M39" s="13" t="n"/>
+      <c r="N39" s="29" t="n"/>
+      <c r="O39" s="29" t="n"/>
+      <c r="P39" s="29" t="n"/>
+      <c r="Q39" s="29" t="n"/>
+      <c r="R39" s="29" t="n"/>
+      <c r="S39" s="29" t="n"/>
+      <c r="T39" s="29" t="n"/>
+      <c r="U39" s="27" t="n"/>
+      <c r="V39" s="27" t="n"/>
+      <c r="W39" s="27" t="n"/>
+      <c r="X39" s="27" t="n"/>
+      <c r="Y39" s="27" t="n"/>
+      <c r="Z39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="29" t="n"/>
-      <c r="B40" s="29" t="n"/>
-      <c r="C40" s="29" t="n"/>
-      <c r="D40" s="29" t="n"/>
-      <c r="E40" s="29" t="n"/>
-      <c r="F40" s="29" t="n"/>
-      <c r="G40" s="28" t="n"/>
-      <c r="H40" s="28" t="n"/>
-      <c r="I40" s="29" t="n"/>
-      <c r="J40" s="29" t="n"/>
-      <c r="K40" s="29" t="n"/>
-      <c r="L40" s="29" t="n"/>
-      <c r="M40" s="29" t="n"/>
+      <c r="G40" s="14" t="n"/>
+      <c r="H40" s="10" t="n"/>
+      <c r="N40" s="29" t="n"/>
+      <c r="O40" s="29" t="n"/>
+      <c r="P40" s="29" t="n"/>
+      <c r="Q40" s="29" t="n"/>
+      <c r="R40" s="29" t="n"/>
+      <c r="S40" s="29" t="n"/>
+      <c r="T40" s="28" t="n"/>
+      <c r="U40" s="28" t="n"/>
+      <c r="V40" s="29" t="n"/>
+      <c r="W40" s="29" t="n"/>
+      <c r="X40" s="29" t="n"/>
+      <c r="Y40" s="29" t="n"/>
+      <c r="Z40" s="29" t="n"/>
     </row>
     <row r="41" ht="20.15" customHeight="1" s="25">
-      <c r="A41" s="29" t="n"/>
-      <c r="B41" s="29" t="n"/>
-      <c r="C41" s="29" t="n"/>
-      <c r="D41" s="29" t="n"/>
-      <c r="E41" s="29" t="n"/>
-      <c r="F41" s="29" t="n"/>
-      <c r="G41" s="34" t="n"/>
-      <c r="H41" s="34" t="n"/>
-      <c r="I41" s="34" t="n"/>
-      <c r="J41" s="34" t="n"/>
-      <c r="K41" s="34" t="n"/>
-      <c r="L41" s="34" t="n"/>
-      <c r="M41" s="34" t="n"/>
+      <c r="G41" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　特 徴</t>
+        </is>
+      </c>
+      <c r="H41" s="15" t="n"/>
+      <c r="I41" s="15" t="n"/>
+      <c r="J41" s="15" t="n"/>
+      <c r="K41" s="15" t="n"/>
+      <c r="L41" s="15" t="n"/>
+      <c r="M41" s="15" t="n"/>
+      <c r="N41" s="29" t="n"/>
+      <c r="O41" s="29" t="n"/>
+      <c r="P41" s="29" t="n"/>
+      <c r="Q41" s="29" t="n"/>
+      <c r="R41" s="29" t="n"/>
+      <c r="S41" s="29" t="n"/>
+      <c r="T41" s="34" t="n"/>
+      <c r="U41" s="34" t="n"/>
+      <c r="V41" s="34" t="n"/>
+      <c r="W41" s="34" t="n"/>
+      <c r="X41" s="34" t="n"/>
+      <c r="Y41" s="34" t="n"/>
+      <c r="Z41" s="34" t="n"/>
     </row>
     <row r="42" ht="20.15" customHeight="1" s="25">
-      <c r="A42" s="29" t="n"/>
-      <c r="B42" s="29" t="n"/>
-      <c r="C42" s="29" t="n"/>
-      <c r="D42" s="29" t="n"/>
-      <c r="E42" s="29" t="n"/>
-      <c r="F42" s="29" t="n"/>
-      <c r="G42" s="29" t="n"/>
-      <c r="H42" s="29" t="n"/>
-      <c r="I42" s="29" t="n"/>
-      <c r="J42" s="29" t="n"/>
-      <c r="K42" s="29" t="n"/>
-      <c r="L42" s="29" t="n"/>
-      <c r="M42" s="29" t="n"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>●低温時でもしっかり効く硝酸態窒素と窒素成分を無駄なく効率的に</t>
+        </is>
+      </c>
+      <c r="N42" s="29" t="n"/>
+      <c r="O42" s="29" t="n"/>
+      <c r="P42" s="29" t="n"/>
+      <c r="Q42" s="29" t="n"/>
+      <c r="R42" s="29" t="n"/>
+      <c r="S42" s="29" t="n"/>
+      <c r="T42" s="29" t="n"/>
+      <c r="U42" s="29" t="n"/>
+      <c r="V42" s="29" t="n"/>
+      <c r="W42" s="29" t="n"/>
+      <c r="X42" s="29" t="n"/>
+      <c r="Y42" s="29" t="n"/>
+      <c r="Z42" s="29" t="n"/>
     </row>
     <row r="43" ht="20.15" customHeight="1" s="25">
-      <c r="A43" s="29" t="n"/>
-      <c r="B43" s="29" t="n"/>
-      <c r="C43" s="29" t="n"/>
-      <c r="D43" s="29" t="n"/>
-      <c r="E43" s="29" t="n"/>
-      <c r="F43" s="29" t="n"/>
-      <c r="G43" s="29" t="n"/>
-      <c r="H43" s="29" t="n"/>
-      <c r="I43" s="29" t="n"/>
-      <c r="J43" s="29" t="n"/>
-      <c r="K43" s="29" t="n"/>
-      <c r="L43" s="29" t="n"/>
-      <c r="M43" s="29" t="n"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　効かせる事が出来るジシアンジアミドの相互作業により、初期生育</t>
+        </is>
+      </c>
+      <c r="N43" s="29" t="n"/>
+      <c r="O43" s="29" t="n"/>
+      <c r="P43" s="29" t="n"/>
+      <c r="Q43" s="29" t="n"/>
+      <c r="R43" s="29" t="n"/>
+      <c r="S43" s="29" t="n"/>
+      <c r="T43" s="29" t="n"/>
+      <c r="U43" s="29" t="n"/>
+      <c r="V43" s="29" t="n"/>
+      <c r="W43" s="29" t="n"/>
+      <c r="X43" s="29" t="n"/>
+      <c r="Y43" s="29" t="n"/>
+      <c r="Z43" s="29" t="n"/>
     </row>
     <row r="44" ht="20.15" customHeight="1" s="25">
-      <c r="A44" s="29" t="n"/>
-      <c r="B44" s="29" t="n"/>
-      <c r="C44" s="29" t="n"/>
-      <c r="D44" s="29" t="n"/>
-      <c r="E44" s="29" t="n"/>
-      <c r="F44" s="29" t="n"/>
-      <c r="G44" s="29" t="n"/>
-      <c r="H44" s="29" t="n"/>
-      <c r="I44" s="29" t="n"/>
-      <c r="J44" s="29" t="n"/>
-      <c r="K44" s="29" t="n"/>
-      <c r="L44" s="29" t="n"/>
-      <c r="M44" s="29" t="n"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　を充実させるとともに生育中後期にかけても安定した肥効を示します。</t>
+        </is>
+      </c>
+      <c r="N44" s="29" t="n"/>
+      <c r="O44" s="29" t="n"/>
+      <c r="P44" s="29" t="n"/>
+      <c r="Q44" s="29" t="n"/>
+      <c r="R44" s="29" t="n"/>
+      <c r="S44" s="29" t="n"/>
+      <c r="T44" s="29" t="n"/>
+      <c r="U44" s="29" t="n"/>
+      <c r="V44" s="29" t="n"/>
+      <c r="W44" s="29" t="n"/>
+      <c r="X44" s="29" t="n"/>
+      <c r="Y44" s="29" t="n"/>
+      <c r="Z44" s="29" t="n"/>
     </row>
     <row r="45" ht="20.15" customHeight="1" s="25">
-      <c r="A45" s="29" t="n"/>
-      <c r="B45" s="29" t="n"/>
-      <c r="C45" s="29" t="n"/>
-      <c r="D45" s="29" t="n"/>
-      <c r="E45" s="29" t="n"/>
-      <c r="F45" s="29" t="n"/>
-      <c r="G45" s="29" t="n"/>
-      <c r="H45" s="29" t="n"/>
-      <c r="I45" s="29" t="n"/>
-      <c r="J45" s="29" t="n"/>
-      <c r="K45" s="29" t="n"/>
-      <c r="L45" s="29" t="n"/>
-      <c r="M45" s="29" t="n"/>
+      <c r="G45" t="n">
+        <v/>
+      </c>
+      <c r="N45" s="29" t="n"/>
+      <c r="O45" s="29" t="n"/>
+      <c r="P45" s="29" t="n"/>
+      <c r="Q45" s="29" t="n"/>
+      <c r="R45" s="29" t="n"/>
+      <c r="S45" s="29" t="n"/>
+      <c r="T45" s="29" t="n"/>
+      <c r="U45" s="29" t="n"/>
+      <c r="V45" s="29" t="n"/>
+      <c r="W45" s="29" t="n"/>
+      <c r="X45" s="29" t="n"/>
+      <c r="Y45" s="29" t="n"/>
+      <c r="Z45" s="29" t="n"/>
     </row>
     <row r="46" ht="20.15" customHeight="1" s="25">
-      <c r="A46" s="29" t="n"/>
-      <c r="B46" s="29" t="n"/>
-      <c r="C46" s="29" t="n"/>
-      <c r="D46" s="29" t="n"/>
-      <c r="E46" s="29" t="n"/>
-      <c r="F46" s="29" t="n"/>
-      <c r="G46" s="29" t="n"/>
-      <c r="H46" s="29" t="n"/>
-      <c r="I46" s="29" t="n"/>
-      <c r="J46" s="29" t="n"/>
-      <c r="K46" s="29" t="n"/>
-      <c r="L46" s="29" t="n"/>
-      <c r="M46" s="29" t="n"/>
+      <c r="G46" t="n">
+        <v/>
+      </c>
+      <c r="N46" s="29" t="n"/>
+      <c r="O46" s="29" t="n"/>
+      <c r="P46" s="29" t="n"/>
+      <c r="Q46" s="29" t="n"/>
+      <c r="R46" s="29" t="n"/>
+      <c r="S46" s="29" t="n"/>
+      <c r="T46" s="29" t="n"/>
+      <c r="U46" s="29" t="n"/>
+      <c r="V46" s="29" t="n"/>
+      <c r="W46" s="29" t="n"/>
+      <c r="X46" s="29" t="n"/>
+      <c r="Y46" s="29" t="n"/>
+      <c r="Z46" s="29" t="n"/>
     </row>
     <row r="47" ht="20.15" customHeight="1" s="25">
-      <c r="A47" s="29" t="n"/>
-      <c r="B47" s="29" t="n"/>
-      <c r="C47" s="29" t="n"/>
-      <c r="D47" s="29" t="n"/>
-      <c r="E47" s="29" t="n"/>
-      <c r="F47" s="29" t="n"/>
-      <c r="G47" s="29" t="n"/>
-      <c r="H47" s="29" t="n"/>
-      <c r="I47" s="29" t="n"/>
-      <c r="J47" s="29" t="n"/>
-      <c r="K47" s="29" t="n"/>
-      <c r="L47" s="29" t="n"/>
-      <c r="M47" s="29" t="n"/>
+      <c r="G47" t="n">
+        <v/>
+      </c>
+      <c r="N47" s="29" t="n"/>
+      <c r="O47" s="29" t="n"/>
+      <c r="P47" s="29" t="n"/>
+      <c r="Q47" s="29" t="n"/>
+      <c r="R47" s="29" t="n"/>
+      <c r="S47" s="29" t="n"/>
+      <c r="T47" s="29" t="n"/>
+      <c r="U47" s="29" t="n"/>
+      <c r="V47" s="29" t="n"/>
+      <c r="W47" s="29" t="n"/>
+      <c r="X47" s="29" t="n"/>
+      <c r="Y47" s="29" t="n"/>
+      <c r="Z47" s="29" t="n"/>
     </row>
     <row r="48" ht="20.15" customHeight="1" s="25">
-      <c r="A48" s="29" t="n"/>
-      <c r="B48" s="29" t="n"/>
-      <c r="C48" s="29" t="n"/>
-      <c r="D48" s="29" t="n"/>
-      <c r="E48" s="29" t="n"/>
-      <c r="F48" s="29" t="n"/>
-      <c r="G48" s="29" t="n"/>
-      <c r="H48" s="29" t="n"/>
-      <c r="I48" s="29" t="n"/>
-      <c r="J48" s="29" t="n"/>
-      <c r="K48" s="29" t="n"/>
-      <c r="L48" s="29" t="n"/>
-      <c r="M48" s="29" t="n"/>
+      <c r="G48" t="n">
+        <v/>
+      </c>
+      <c r="N48" s="29" t="n"/>
+      <c r="O48" s="29" t="n"/>
+      <c r="P48" s="29" t="n"/>
+      <c r="Q48" s="29" t="n"/>
+      <c r="R48" s="29" t="n"/>
+      <c r="S48" s="29" t="n"/>
+      <c r="T48" s="29" t="n"/>
+      <c r="U48" s="29" t="n"/>
+      <c r="V48" s="29" t="n"/>
+      <c r="W48" s="29" t="n"/>
+      <c r="X48" s="29" t="n"/>
+      <c r="Y48" s="29" t="n"/>
+      <c r="Z48" s="29" t="n"/>
     </row>
     <row r="49" ht="20.15" customHeight="1" s="25">
-      <c r="A49" s="29" t="n"/>
-      <c r="B49" s="29" t="n"/>
-      <c r="C49" s="29" t="n"/>
-      <c r="D49" s="29" t="n"/>
-      <c r="E49" s="29" t="n"/>
-      <c r="F49" s="29" t="n"/>
-      <c r="G49" s="29" t="n"/>
-      <c r="H49" s="29" t="n"/>
-      <c r="I49" s="29" t="n"/>
-      <c r="J49" s="29" t="n"/>
-      <c r="K49" s="29" t="n"/>
-      <c r="L49" s="29" t="n"/>
-      <c r="M49" s="29" t="n"/>
+      <c r="G49" t="n">
+        <v/>
+      </c>
+      <c r="N49" s="29" t="n"/>
+      <c r="O49" s="29" t="n"/>
+      <c r="P49" s="29" t="n"/>
+      <c r="Q49" s="29" t="n"/>
+      <c r="R49" s="29" t="n"/>
+      <c r="S49" s="29" t="n"/>
+      <c r="T49" s="29" t="n"/>
+      <c r="U49" s="29" t="n"/>
+      <c r="V49" s="29" t="n"/>
+      <c r="W49" s="29" t="n"/>
+      <c r="X49" s="29" t="n"/>
+      <c r="Y49" s="29" t="n"/>
+      <c r="Z49" s="29" t="n"/>
     </row>
     <row r="50" ht="9.4" customHeight="1" s="25">
-      <c r="A50" s="27" t="n"/>
-      <c r="B50" s="27" t="n"/>
-      <c r="C50" s="27" t="n"/>
-      <c r="D50" s="27" t="n"/>
-      <c r="E50" s="27" t="n"/>
-      <c r="F50" s="27" t="n"/>
-      <c r="G50" s="28" t="n"/>
-      <c r="H50" s="27" t="n"/>
-      <c r="I50" s="27" t="n"/>
-      <c r="J50" s="27" t="n"/>
-      <c r="K50" s="27" t="n"/>
-      <c r="L50" s="27" t="n"/>
-      <c r="M50" s="27" t="n"/>
+      <c r="A50" s="16" t="n"/>
+      <c r="B50" s="16" t="n"/>
+      <c r="C50" s="16" t="n"/>
+      <c r="D50" s="16" t="n"/>
+      <c r="E50" s="16" t="n"/>
+      <c r="F50" s="16" t="n"/>
+      <c r="G50" s="17" t="n"/>
+      <c r="H50" s="16" t="n"/>
+      <c r="I50" s="16" t="n"/>
+      <c r="J50" s="16" t="n"/>
+      <c r="K50" s="16" t="n"/>
+      <c r="L50" s="16" t="n"/>
+      <c r="M50" s="16" t="n"/>
+      <c r="N50" s="27" t="n"/>
+      <c r="O50" s="27" t="n"/>
+      <c r="P50" s="27" t="n"/>
+      <c r="Q50" s="27" t="n"/>
+      <c r="R50" s="27" t="n"/>
+      <c r="S50" s="27" t="n"/>
+      <c r="T50" s="28" t="n"/>
+      <c r="U50" s="27" t="n"/>
+      <c r="V50" s="27" t="n"/>
+      <c r="W50" s="27" t="n"/>
+      <c r="X50" s="27" t="n"/>
+      <c r="Y50" s="27" t="n"/>
+      <c r="Z50" s="27" t="n"/>
     </row>
     <row r="51" ht="20.15" customHeight="1" s="25"/>
     <row r="52" ht="20.15" customHeight="1" s="25"/>
@@ -1450,6 +2052,11 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="1.102362204724409" right="1.102362204724409" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="76"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="74"/>
+  <colBreaks count="2" manualBreakCount="2">
+    <brk id="13" min="0" max="16383" man="1"/>
+    <brk id="26" min="0" max="16383" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/kasei_tem_finish.xlsx
+++ b/kasei_tem_finish.xlsx
@@ -1054,8 +1054,12 @@
       <c r="K5" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="L5" s="26" t="n"/>
-      <c r="M5" s="26" t="n"/>
+      <c r="L5" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="T5" s="22" t="inlineStr">
         <is>
           <t>成分</t>
@@ -1071,10 +1075,14 @@
         <v>9</v>
       </c>
       <c r="X5" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="26" t="n">
         <v>0.1</v>
       </c>
-      <c r="Y5" s="26" t="n"/>
-      <c r="Z5" s="26" t="n"/>
+      <c r="Z5" s="26" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="6" ht="20.15" customHeight="1" s="25">
       <c r="G6" s="23" t="inlineStr">
@@ -1358,10 +1366,14 @@
         <v>12</v>
       </c>
       <c r="K21" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="L21" s="26" t="n"/>
-      <c r="M21" s="26" t="n"/>
+      <c r="M21" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="N21" s="29" t="n"/>
       <c r="O21" s="29" t="n"/>
       <c r="P21" s="29" t="n"/>
@@ -1752,10 +1764,14 @@
         <v>9</v>
       </c>
       <c r="K37" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="L37" s="26" t="n">
         <v>0.1</v>
       </c>
-      <c r="L37" s="26" t="n"/>
-      <c r="M37" s="26" t="n"/>
+      <c r="M37" s="26" t="n">
+        <v>0.1</v>
+      </c>
       <c r="N37" s="29" t="n"/>
       <c r="O37" s="29" t="n"/>
       <c r="P37" s="29" t="n"/>
